--- a/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">ncs_support</t>
+    <t xml:space="preserve">Supports the National Climate Scheme</t>
   </si>
   <si>
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
@@ -438,34 +438,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.676630126235206</v>
+        <v>0.626593872251252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.640326225208888</v>
+        <v>0.684974527697726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.795443331683846</v>
+        <v>0.729828849189934</v>
       </c>
       <c r="E2" t="n">
-        <v>0.745222929936306</v>
+        <v>0.683925019736867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.67196700819764</v>
+        <v>0.628980146595866</v>
       </c>
       <c r="G2" t="n">
-        <v>0.887696740497652</v>
+        <v>0.885521997933368</v>
       </c>
       <c r="H2" t="n">
-        <v>0.56139774770163</v>
+        <v>0.649478928549642</v>
       </c>
       <c r="I2" t="n">
-        <v>0.485693411164953</v>
+        <v>0.532314809989615</v>
       </c>
       <c r="J2" t="n">
-        <v>0.744289912587384</v>
+        <v>0.698702760956361</v>
       </c>
       <c r="K2" t="n">
-        <v>0.743418424136159</v>
+        <v>0.642343359982491</v>
       </c>
     </row>
     <row r="3">
@@ -473,34 +473,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.689191298678416</v>
+        <v>0.583687809451867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.438561973166756</v>
+        <v>0.488849102950605</v>
       </c>
       <c r="D3" t="n">
-        <v>0.895340829412168</v>
+        <v>0.74201474861221</v>
       </c>
       <c r="E3" t="n">
-        <v>0.444839857651246</v>
+        <v>0.574895712371069</v>
       </c>
       <c r="F3" t="n">
-        <v>0.609535123039105</v>
+        <v>0.495449102816059</v>
       </c>
       <c r="G3" t="n">
-        <v>0.845114160375521</v>
+        <v>0.844503307037106</v>
       </c>
       <c r="H3" t="n">
-        <v>0.708297587374607</v>
+        <v>0.657641470818065</v>
       </c>
       <c r="I3" t="n">
-        <v>0.718852175635752</v>
+        <v>0.731627422134841</v>
       </c>
       <c r="J3" t="n">
-        <v>0.511382181838329</v>
+        <v>0.502149155370943</v>
       </c>
       <c r="K3" t="n">
-        <v>0.575219412043056</v>
+        <v>0.491759752723299</v>
       </c>
     </row>
     <row r="4">
@@ -508,34 +508,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.832769577000596</v>
+        <v>0.792172926112797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.737776805087991</v>
+        <v>0.761415569927894</v>
       </c>
       <c r="D4" t="n">
-        <v>0.796346385802911</v>
+        <v>0.794685372403072</v>
       </c>
       <c r="E4" t="n">
-        <v>0.551330798479087</v>
+        <v>0.707273722780202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.764224715919422</v>
+        <v>0.718801908296159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.882444411188671</v>
+        <v>0.880362728009305</v>
       </c>
       <c r="H4" t="n">
-        <v>0.699870841312594</v>
+        <v>0.701108947890267</v>
       </c>
       <c r="I4" t="n">
-        <v>0.79925235737027</v>
+        <v>0.723911380335843</v>
       </c>
       <c r="J4" t="n">
-        <v>0.570020320757786</v>
+        <v>0.598699761297328</v>
       </c>
       <c r="K4" t="n">
-        <v>0.895052643455372</v>
+        <v>0.660721983664074</v>
       </c>
     </row>
     <row r="5">
@@ -543,34 +543,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.751021760153459</v>
+        <v>0.599088248771922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.741457027551676</v>
+        <v>0.645501299065432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.922255090489955</v>
+        <v>0.794530381277022</v>
       </c>
       <c r="E5" t="n">
-        <v>0.784313725490196</v>
+        <v>0.625242731445997</v>
       </c>
       <c r="F5" t="n">
-        <v>0.791486974708192</v>
+        <v>0.588160974105242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.885544512178713</v>
+        <v>0.872110712092897</v>
       </c>
       <c r="H5" t="n">
-        <v>0.798579927901068</v>
+        <v>0.769294368973077</v>
       </c>
       <c r="I5" t="n">
-        <v>0.722997350007419</v>
+        <v>0.74958071356108</v>
       </c>
       <c r="J5" t="n">
-        <v>0.661643142092702</v>
+        <v>0.701139236471705</v>
       </c>
       <c r="K5" t="n">
-        <v>0.796515644133716</v>
+        <v>0.546983814392583</v>
       </c>
     </row>
     <row r="6">
@@ -578,34 +578,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.766688299611329</v>
+        <v>0.760500881133356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.772505560087666</v>
+        <v>0.758618127980539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.841738661158664</v>
+        <v>0.809490412766813</v>
       </c>
       <c r="E6" t="n">
-        <v>0.579545454545455</v>
+        <v>0.677841401466591</v>
       </c>
       <c r="F6" t="n">
-        <v>0.750906930285769</v>
+        <v>0.562619372634919</v>
       </c>
       <c r="G6" t="n">
-        <v>0.856590169079531</v>
+        <v>0.86974581204702</v>
       </c>
       <c r="H6" t="n">
-        <v>0.749223952011629</v>
+        <v>0.793845222480012</v>
       </c>
       <c r="I6" t="n">
-        <v>0.465808087326347</v>
+        <v>0.522846998626103</v>
       </c>
       <c r="J6" t="n">
-        <v>0.604528492482927</v>
+        <v>0.70821798823452</v>
       </c>
       <c r="K6" t="n">
-        <v>0.68921994195011</v>
+        <v>0.565226745460006</v>
       </c>
     </row>
     <row r="7">
@@ -613,34 +613,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.697458945794952</v>
+        <v>0.736647609454859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.624692418859928</v>
+        <v>0.629236462887567</v>
       </c>
       <c r="D7" t="n">
-        <v>0.90658692697538</v>
+        <v>0.825778518939201</v>
       </c>
       <c r="E7" t="n">
-        <v>0.56390977443609</v>
+        <v>0.675758568401985</v>
       </c>
       <c r="F7" t="n">
-        <v>0.430212285799268</v>
+        <v>0.621475253244649</v>
       </c>
       <c r="G7" t="n">
-        <v>0.90517648562136</v>
+        <v>0.85832777759893</v>
       </c>
       <c r="H7" t="n">
-        <v>0.51882248165969</v>
+        <v>0.687598853246759</v>
       </c>
       <c r="I7" t="n">
-        <v>0.478610314282717</v>
+        <v>0.551757110868948</v>
       </c>
       <c r="J7" t="n">
-        <v>0.604537631893693</v>
+        <v>0.579992651628614</v>
       </c>
       <c r="K7" t="n">
-        <v>0.545249007779869</v>
+        <v>0.593704596101895</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,47 +32,47 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Supports the National Climate Scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
-*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
-*High color: High + Distributive effects displayed using colors on world map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
-*Mid: Global South + China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
-*Low: Global South + EU)</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
+                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
+                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
   </si>
 </sst>
 </file>
@@ -432,215 +438,257 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626593872251252</v>
+        <v>0.664226512802836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.684974527697726</v>
+        <v>0.657193301686884</v>
       </c>
       <c r="D2" t="n">
-        <v>0.729828849189934</v>
+        <v>0.632178756299858</v>
       </c>
       <c r="E2" t="n">
-        <v>0.683925019736867</v>
+        <v>0.625788710577028</v>
       </c>
       <c r="F2" t="n">
-        <v>0.628980146595866</v>
+        <v>0.737750703446263</v>
       </c>
       <c r="G2" t="n">
-        <v>0.885521997933368</v>
+        <v>0.557958636289971</v>
       </c>
       <c r="H2" t="n">
-        <v>0.649478928549642</v>
+        <v>0.689928868694489</v>
       </c>
       <c r="I2" t="n">
-        <v>0.532314809989615</v>
+        <v>0.695057232484879</v>
       </c>
       <c r="J2" t="n">
-        <v>0.698702760956361</v>
+        <v>0.577523185799727</v>
       </c>
       <c r="K2" t="n">
-        <v>0.642343359982491</v>
+        <v>0.679794880829724</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.880240645828153</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.640316340570691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.583687809451867</v>
+        <v>0.564056918460414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.488849102950605</v>
+        <v>0.626104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74201474861221</v>
+        <v>0.626241772243332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.574895712371069</v>
+        <v>0.570221595439767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.495449102816059</v>
+        <v>0.759965330571316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.844503307037106</v>
+        <v>0.524189689399028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.657641470818065</v>
+        <v>0.689559121142826</v>
       </c>
       <c r="I3" t="n">
-        <v>0.731627422134841</v>
+        <v>0.593921918987369</v>
       </c>
       <c r="J3" t="n">
-        <v>0.502149155370943</v>
+        <v>0.610888816467228</v>
       </c>
       <c r="K3" t="n">
-        <v>0.491759752723299</v>
+        <v>0.544832237727142</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.845249604687817</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.477176118933856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.792172926112797</v>
+        <v>0.657757973018818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761415569927894</v>
+        <v>0.688160595583607</v>
       </c>
       <c r="D4" t="n">
-        <v>0.794685372403072</v>
+        <v>0.753397348285344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.707273722780202</v>
+        <v>0.627385682537816</v>
       </c>
       <c r="F4" t="n">
-        <v>0.718801908296159</v>
+        <v>0.848771216338856</v>
       </c>
       <c r="G4" t="n">
-        <v>0.880362728009305</v>
+        <v>0.603075714398011</v>
       </c>
       <c r="H4" t="n">
-        <v>0.701108947890267</v>
+        <v>0.707904376466329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.723911380335843</v>
+        <v>0.637497870612938</v>
       </c>
       <c r="J4" t="n">
-        <v>0.598699761297328</v>
+        <v>0.61691572049826</v>
       </c>
       <c r="K4" t="n">
-        <v>0.660721983664074</v>
+        <v>0.665884503407556</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.869712358856764</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.603307739305438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.599088248771922</v>
+        <v>0.676120341228827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.645501299065432</v>
+        <v>0.731501666372061</v>
       </c>
       <c r="D5" t="n">
-        <v>0.794530381277022</v>
+        <v>0.759578759812179</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625242731445997</v>
+        <v>0.715781509811605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.588160974105242</v>
+        <v>0.826621609973818</v>
       </c>
       <c r="G5" t="n">
-        <v>0.872110712092897</v>
+        <v>0.539542753382839</v>
       </c>
       <c r="H5" t="n">
-        <v>0.769294368973077</v>
+        <v>0.777187061273175</v>
       </c>
       <c r="I5" t="n">
-        <v>0.74958071356108</v>
+        <v>0.67466334415845</v>
       </c>
       <c r="J5" t="n">
-        <v>0.701139236471705</v>
+        <v>0.637890555129928</v>
       </c>
       <c r="K5" t="n">
-        <v>0.546983814392583</v>
+        <v>0.672922348590199</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.86513074970901</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.589366541153335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.760500881133356</v>
+        <v>0.699010110708032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.758618127980539</v>
+        <v>0.7333558792255</v>
       </c>
       <c r="D6" t="n">
-        <v>0.809490412766813</v>
+        <v>0.763148103910017</v>
       </c>
       <c r="E6" t="n">
-        <v>0.677841401466591</v>
+        <v>0.770272348727413</v>
       </c>
       <c r="F6" t="n">
-        <v>0.562619372634919</v>
+        <v>0.788435848365109</v>
       </c>
       <c r="G6" t="n">
-        <v>0.86974581204702</v>
+        <v>0.713087172187091</v>
       </c>
       <c r="H6" t="n">
-        <v>0.793845222480012</v>
+        <v>0.74199477200258</v>
       </c>
       <c r="I6" t="n">
-        <v>0.522846998626103</v>
+        <v>0.62534539350272</v>
       </c>
       <c r="J6" t="n">
-        <v>0.70821798823452</v>
+        <v>0.743491876231661</v>
       </c>
       <c r="K6" t="n">
-        <v>0.565226745460006</v>
+        <v>0.70796250180037</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.90518282762834</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.636481822477839</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.736647609454859</v>
+        <v>0.632380148473266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.629236462887567</v>
+        <v>0.679633244466616</v>
       </c>
       <c r="D7" t="n">
-        <v>0.825778518939201</v>
+        <v>0.614641799995525</v>
       </c>
       <c r="E7" t="n">
-        <v>0.675758568401985</v>
+        <v>0.680628787989002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.621475253244649</v>
+        <v>0.793318305400507</v>
       </c>
       <c r="G7" t="n">
-        <v>0.85832777759893</v>
+        <v>0.566663585514635</v>
       </c>
       <c r="H7" t="n">
-        <v>0.687598853246759</v>
+        <v>0.774540600482755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.551757110868948</v>
+        <v>0.661815968025775</v>
       </c>
       <c r="J7" t="n">
-        <v>0.579992651628614</v>
+        <v>0.647145596361043</v>
       </c>
       <c r="K7" t="n">
-        <v>0.593704596101895</v>
+        <v>0.633776677259689</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.875032786022504</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.560366948341141</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -444,13 +447,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.664226512802836</v>
+        <v>0.679579005629342</v>
       </c>
       <c r="C2" t="n">
         <v>0.657193301686884</v>
@@ -480,59 +486,65 @@
         <v>0.679794880829724</v>
       </c>
       <c r="L2" t="n">
+        <v>0.745408968197829</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.880240645828153</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.640316340570691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564056918460414</v>
+        <v>0.554258283605262</v>
       </c>
       <c r="C3" t="n">
         <v>0.626104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.626241772243332</v>
+        <v>0.624391933320713</v>
       </c>
       <c r="E3" t="n">
-        <v>0.570221595439767</v>
+        <v>0.569361201319161</v>
       </c>
       <c r="F3" t="n">
-        <v>0.759965330571316</v>
+        <v>0.758885638793477</v>
       </c>
       <c r="G3" t="n">
-        <v>0.524189689399028</v>
+        <v>0.522608728926402</v>
       </c>
       <c r="H3" t="n">
-        <v>0.689559121142826</v>
+        <v>0.689643842296669</v>
       </c>
       <c r="I3" t="n">
-        <v>0.593921918987369</v>
+        <v>0.593498631932549</v>
       </c>
       <c r="J3" t="n">
-        <v>0.610888816467228</v>
+        <v>0.609943712759195</v>
       </c>
       <c r="K3" t="n">
-        <v>0.544832237727142</v>
+        <v>0.543385352183665</v>
       </c>
       <c r="L3" t="n">
-        <v>0.845249604687817</v>
+        <v>0.49005949459479</v>
       </c>
       <c r="M3" t="n">
-        <v>0.477176118933856</v>
+        <v>0.845259319958112</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.476499434449555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.657757973018818</v>
+        <v>0.646020160692236</v>
       </c>
       <c r="C4" t="n">
         <v>0.688160595583607</v>
@@ -562,18 +574,21 @@
         <v>0.665884503407556</v>
       </c>
       <c r="L4" t="n">
+        <v>0.566004208236377</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.869712358856764</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.603307739305438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.676120341228827</v>
+        <v>0.673589957678886</v>
       </c>
       <c r="C5" t="n">
         <v>0.731501666372061</v>
@@ -603,18 +618,21 @@
         <v>0.672922348590199</v>
       </c>
       <c r="L5" t="n">
+        <v>0.649824905118065</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.86513074970901</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.589366541153335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.699010110708032</v>
+        <v>0.68506153675379</v>
       </c>
       <c r="C6" t="n">
         <v>0.7333558792255</v>
@@ -644,18 +662,21 @@
         <v>0.70796250180037</v>
       </c>
       <c r="L6" t="n">
+        <v>0.607672609910995</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.90518282762834</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.636481822477839</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.632380148473266</v>
+        <v>0.619858273857402</v>
       </c>
       <c r="C7" t="n">
         <v>0.679633244466616</v>
@@ -685,9 +706,12 @@
         <v>0.633776677259689</v>
       </c>
       <c r="L7" t="n">
+        <v>0.554489061890469</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.875032786022504</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.560366948341141</v>
       </c>
     </row>

--- a/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.679579005629342</v>
+        <v>0.678679804978435</v>
       </c>
       <c r="C2" t="n">
         <v>0.657193301686884</v>
@@ -483,16 +483,16 @@
         <v>0.577523185799727</v>
       </c>
       <c r="K2" t="n">
-        <v>0.679794880829724</v>
+        <v>0.67987520077397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.745408968197829</v>
+        <v>0.74084626345024</v>
       </c>
       <c r="M2" t="n">
         <v>0.880240645828153</v>
       </c>
       <c r="N2" t="n">
-        <v>0.640316340570691</v>
+        <v>0.640735542026883</v>
       </c>
     </row>
     <row r="3">
@@ -500,43 +500,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.554258283605262</v>
+        <v>0.553718303775116</v>
       </c>
       <c r="C3" t="n">
         <v>0.626104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.624391933320713</v>
+        <v>0.62468719027894</v>
       </c>
       <c r="E3" t="n">
-        <v>0.569361201319161</v>
+        <v>0.569498424923018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.758885638793477</v>
+        <v>0.759057679811368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.522608728926402</v>
+        <v>0.522861429260386</v>
       </c>
       <c r="H3" t="n">
-        <v>0.689643842296669</v>
+        <v>0.68963033430472</v>
       </c>
       <c r="I3" t="n">
-        <v>0.593498631932549</v>
+        <v>0.593566149815293</v>
       </c>
       <c r="J3" t="n">
-        <v>0.609943712759195</v>
+        <v>0.610091501584142</v>
       </c>
       <c r="K3" t="n">
-        <v>0.543385352183665</v>
+        <v>0.543669469571705</v>
       </c>
       <c r="L3" t="n">
-        <v>0.49005949459479</v>
+        <v>0.489608113420232</v>
       </c>
       <c r="M3" t="n">
-        <v>0.845259319958112</v>
+        <v>0.845257807486015</v>
       </c>
       <c r="N3" t="n">
-        <v>0.476499434449555</v>
+        <v>0.476878037078152</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.646020160692236</v>
+        <v>0.647240480131028</v>
       </c>
       <c r="C4" t="n">
         <v>0.688160595583607</v>
@@ -571,16 +571,16 @@
         <v>0.61691572049826</v>
       </c>
       <c r="K4" t="n">
-        <v>0.665884503407556</v>
+        <v>0.665933688883394</v>
       </c>
       <c r="L4" t="n">
-        <v>0.566004208236377</v>
+        <v>0.572690723237937</v>
       </c>
       <c r="M4" t="n">
         <v>0.869712358856764</v>
       </c>
       <c r="N4" t="n">
-        <v>0.603307739305438</v>
+        <v>0.603471262597791</v>
       </c>
     </row>
     <row r="5">
@@ -588,10 +588,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.673589957678886</v>
+        <v>0.672054760884641</v>
       </c>
       <c r="C5" t="n">
-        <v>0.731501666372061</v>
+        <v>0.73150166637206</v>
       </c>
       <c r="D5" t="n">
         <v>0.759578759812179</v>
@@ -615,16 +615,16 @@
         <v>0.637890555129928</v>
       </c>
       <c r="K5" t="n">
-        <v>0.672922348590199</v>
+        <v>0.67292535125419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.649824905118065</v>
+        <v>0.639033952437169</v>
       </c>
       <c r="M5" t="n">
         <v>0.86513074970901</v>
       </c>
       <c r="N5" t="n">
-        <v>0.589366541153335</v>
+        <v>0.589468339412676</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.68506153675379</v>
+        <v>0.68518253119246</v>
       </c>
       <c r="C6" t="n">
         <v>0.7333558792255</v>
@@ -659,16 +659,16 @@
         <v>0.743491876231661</v>
       </c>
       <c r="K6" t="n">
-        <v>0.70796250180037</v>
+        <v>0.708149579691965</v>
       </c>
       <c r="L6" t="n">
-        <v>0.607672609910995</v>
+        <v>0.604866837966034</v>
       </c>
       <c r="M6" t="n">
         <v>0.90518282762834</v>
       </c>
       <c r="N6" t="n">
-        <v>0.636481822477839</v>
+        <v>0.636828257869627</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.619858273857402</v>
+        <v>0.61895417279981</v>
       </c>
       <c r="C7" t="n">
         <v>0.679633244466616</v>
@@ -703,16 +703,16 @@
         <v>0.647145596361043</v>
       </c>
       <c r="K7" t="n">
-        <v>0.633776677259689</v>
+        <v>0.633861854984241</v>
       </c>
       <c r="L7" t="n">
-        <v>0.554489061890469</v>
+        <v>0.5411746546684</v>
       </c>
       <c r="M7" t="n">
         <v>0.875032786022504</v>
       </c>
       <c r="N7" t="n">
-        <v>0.560366948341141</v>
+        <v>0.560767240057917</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_positive.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.678679804978435</v>
+        <v>0.678255122017956</v>
       </c>
       <c r="C2" t="n">
         <v>0.657193301686884</v>
@@ -486,7 +486,7 @@
         <v>0.67987520077397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.74084626345024</v>
+        <v>0.739047667329172</v>
       </c>
       <c r="M2" t="n">
         <v>0.880240645828153</v>
@@ -500,43 +500,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.553718303775116</v>
+        <v>0.553746767090015</v>
       </c>
       <c r="C3" t="n">
         <v>0.626104574696674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62468719027894</v>
+        <v>0.622273519140294</v>
       </c>
       <c r="E3" t="n">
-        <v>0.569498424923018</v>
+        <v>0.567933697165467</v>
       </c>
       <c r="F3" t="n">
-        <v>0.759057679811368</v>
+        <v>0.757304011850663</v>
       </c>
       <c r="G3" t="n">
-        <v>0.522861429260386</v>
+        <v>0.53058303552895</v>
       </c>
       <c r="H3" t="n">
-        <v>0.68963033430472</v>
+        <v>0.689059343539561</v>
       </c>
       <c r="I3" t="n">
-        <v>0.593566149815293</v>
+        <v>0.593195783835747</v>
       </c>
       <c r="J3" t="n">
-        <v>0.610091501584142</v>
+        <v>0.623575700142155</v>
       </c>
       <c r="K3" t="n">
-        <v>0.543669469571705</v>
+        <v>0.548090076208069</v>
       </c>
       <c r="L3" t="n">
-        <v>0.489608113420232</v>
+        <v>0.490485989036895</v>
       </c>
       <c r="M3" t="n">
-        <v>0.845257807486015</v>
+        <v>0.846428606188793</v>
       </c>
       <c r="N3" t="n">
-        <v>0.476878037078152</v>
+        <v>0.474912333237318</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.647240480131028</v>
+        <v>0.647210522905015</v>
       </c>
       <c r="C4" t="n">
         <v>0.688160595583607</v>
@@ -588,10 +588,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.672054760884641</v>
+        <v>0.671354010141054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.73150166637206</v>
+        <v>0.731501666372061</v>
       </c>
       <c r="D5" t="n">
         <v>0.759578759812179</v>
@@ -618,7 +618,7 @@
         <v>0.67292535125419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.639033952437169</v>
+        <v>0.63442019211072</v>
       </c>
       <c r="M5" t="n">
         <v>0.86513074970901</v>
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.68518253119246</v>
+        <v>0.684899159160603</v>
       </c>
       <c r="C6" t="n">
         <v>0.7333558792255</v>
@@ -662,7 +662,7 @@
         <v>0.708149579691965</v>
       </c>
       <c r="L6" t="n">
-        <v>0.604866837966034</v>
+        <v>0.601821932205212</v>
       </c>
       <c r="M6" t="n">
         <v>0.90518282762834</v>
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.61895417279981</v>
+        <v>0.618798692282585</v>
       </c>
       <c r="C7" t="n">
         <v>0.679633244466616</v>
@@ -706,7 +706,7 @@
         <v>0.633861854984241</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5411746546684</v>
+        <v>0.540183622108344</v>
       </c>
       <c r="M7" t="n">
         <v>0.875032786022504</v>
